--- a/deploy/FC-TakoffLandingCalculation-Sample.xlsx
+++ b/deploy/FC-TakoffLandingCalculation-Sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Projects\Rallye\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Projects\GIT\FlightContest\deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,13 +87,13 @@
     <t>An-/Abflugberechnung</t>
   </si>
   <si>
-    <t>Version 2</t>
-  </si>
-  <si>
     <t>Wettbewerb 2017</t>
   </si>
   <si>
     <t>Veranstalter</t>
+  </si>
+  <si>
+    <t>Version 3</t>
   </si>
 </sst>
 </file>
@@ -103,13 +103,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -169,44 +175,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -544,10 +553,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -555,7 +564,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
@@ -640,8 +649,8 @@
         <v>7.5699999999999994</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f>CONCATENATE("wind+:",ROUND(2*H11,0)/2,"NM")</f>
-        <v>wind+:7,5NM</v>
+        <f>CONCATENATE("wind+:",ROUND(H11,1),"NM")</f>
+        <v>wind+:7,6NM</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -660,8 +669,8 @@
         <v>7.37</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f>CONCATENATE("wind+:",ROUND(2*H12,0)/2,"NM")</f>
-        <v>wind+:7,5NM</v>
+        <f>CONCATENATE("wind+:",ROUND(H12,1),"NM")</f>
+        <v>wind+:7,4NM</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -689,7 +698,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f>CONCATENATE("wind+:",ROUND(2*H14,0)/2,"NM")</f>
+        <f>CONCATENATE("wind+:",ROUND(H14,1),"NM")</f>
         <v>wind+:4,5NM</v>
       </c>
     </row>
@@ -709,8 +718,8 @@
         <v>4.38</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f>CONCATENATE("wind+:",ROUND(2*H15,0)/2,"NM")</f>
-        <v>wind+:4,5NM</v>
+        <f>CONCATENATE("wind+:",ROUND(H15,1),"NM")</f>
+        <v>wind+:4,4NM</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -739,8 +748,8 @@
         <v>6.81</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f>CONCATENATE("wind+:",ROUND(2*H17,0)/2,"NM")</f>
-        <v>wind+:7NM</v>
+        <f>CONCATENATE("wind+:",ROUND(H17,1),"NM")</f>
+        <v>wind+:6,8NM</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -760,7 +769,7 @@
         <v>7.01</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f>CONCATENATE("wind+:",ROUND(2*H18,0)/2,"NM")</f>
+        <f>CONCATENATE("wind+:",ROUND(H18,1),"NM")</f>
         <v>wind+:7NM</v>
       </c>
     </row>
@@ -790,8 +799,8 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f>CONCATENATE("wind+:",ROUND(2*H20,0)/2,"NM")</f>
-        <v>wind+:8,5NM</v>
+        <f>CONCATENATE("wind+:",ROUND(H20,1),"NM")</f>
+        <v>wind+:8,6NM</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -811,8 +820,8 @@
         <v>11.85</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f>CONCATENATE("wind+:",ROUND(2*H21,0)/2,"NM")</f>
-        <v>wind+:12NM</v>
+        <f>CONCATENATE("wind+:",ROUND(H21,1),"NM")</f>
+        <v>wind+:11,9NM</v>
       </c>
     </row>
   </sheetData>
